--- a/Output/6_Month_Revenue_Forecast.xlsx
+++ b/Output/6_Month_Revenue_Forecast.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2205.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-4957.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-7710.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-10462.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-13214.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-15966.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-503.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1238.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-1.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-8.779999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-16.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-24.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-31.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-288.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-603.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-918.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-1233.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-1548.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-1863.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-744.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>-2321.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>-3897.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>-5473.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-7049.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-8625.959999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>-10.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>-115.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>-220.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>-325.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>-430.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>-536.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>-185.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>-479.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>-773.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>-1067.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>-10.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>-26.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>-368.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>-675.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>-983.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>-1290.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>-1597.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>-1904.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>-11.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>-65.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>-118.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>-6.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>-19.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>-32.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>-46.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -6102,7 +6102,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>-59.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>-72.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>-392.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>-5.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -6687,7 +6687,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>-39.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>-38.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>-11.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>-616.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -7587,7 +7587,7 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>-869.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>-632.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>-690.8099999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>-351.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>-278.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>-13.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -8127,7 +8127,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>-73.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>-160.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -8262,7 +8262,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>-431.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -8277,7 +8277,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>-587.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>-276.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -8307,7 +8307,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>-881.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -8322,7 +8322,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>-1485.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>-2090.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>-2695.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -8367,7 +8367,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>-3299.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -9747,7 +9747,7 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>-184.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
@@ -9762,7 +9762,7 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>-754.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
@@ -9777,7 +9777,7 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>-1324.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
@@ -9792,7 +9792,7 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>-1894.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
@@ -9807,7 +9807,7 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>-2465.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>-273.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>-742.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>-1212.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
@@ -9867,7 +9867,7 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>-1681.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>-2150.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
@@ -9897,7 +9897,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>-2619.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -11082,7 +11082,7 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>-71.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -11097,7 +11097,7 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>-101.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
@@ -11112,7 +11112,7 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>-104.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>-118.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>-4.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -11157,7 +11157,7 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>-147.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>-45.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
@@ -11382,7 +11382,7 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>-252.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731">
@@ -11397,7 +11397,7 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>-459.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732">
@@ -11412,7 +11412,7 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>-666.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733">
@@ -11427,7 +11427,7 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>-873.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734">
@@ -11442,7 +11442,7 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>-6.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735">
@@ -11457,7 +11457,7 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>-13.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736">
@@ -11472,7 +11472,7 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>-21.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737">
@@ -11487,7 +11487,7 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>-29.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738">
@@ -11502,7 +11502,7 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>-37.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>-45.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740">
@@ -11772,7 +11772,7 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>-72.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
@@ -11787,7 +11787,7 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>-268.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>-1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
@@ -11817,7 +11817,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>-4.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760">
@@ -11832,7 +11832,7 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>-7.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761">
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>-10.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762">
@@ -11862,7 +11862,7 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>-13.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763">
@@ -11877,7 +11877,7 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>-15.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764">
@@ -11892,7 +11892,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>-67.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765">
@@ -11907,7 +11907,7 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>-58.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>-114.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767">
@@ -11937,7 +11937,7 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>-124.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768">
@@ -11952,7 +11952,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>-161.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769">
@@ -11967,7 +11967,7 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>-136.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>-23.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783">
@@ -12177,7 +12177,7 @@
         </is>
       </c>
       <c r="C783" t="n">
-        <v>-65.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784">
@@ -12192,7 +12192,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>-107.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -12207,7 +12207,7 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>-149.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
@@ -12222,7 +12222,7 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>-192.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787">
@@ -12237,7 +12237,7 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>-234.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788">
@@ -12342,7 +12342,7 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>-7.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795">
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>-16.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796">
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>-25.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797">
@@ -12387,7 +12387,7 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>-35.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798">
@@ -12402,7 +12402,7 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>-44.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799">
@@ -12417,7 +12417,7 @@
         </is>
       </c>
       <c r="C799" t="n">
-        <v>-53.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800">
@@ -12522,7 +12522,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>-48.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807">
@@ -12537,7 +12537,7 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>-152.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808">
@@ -12552,7 +12552,7 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>-257.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809">
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="C809" t="n">
-        <v>-362.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810">
@@ -12582,7 +12582,7 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>-467.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811">
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>-572.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>-7.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815">
@@ -12657,7 +12657,7 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>-19.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816">
@@ -12672,7 +12672,7 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>-32.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817">
@@ -12687,7 +12687,7 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>-45.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818">
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>-15.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820">
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>-56.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821">
@@ -12747,7 +12747,7 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>-98.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822">
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>-139.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823">
@@ -12777,7 +12777,7 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>-180.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824">
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>-41.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826">
@@ -12822,7 +12822,7 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>-179.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827">
@@ -12837,7 +12837,7 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>-316.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -12852,7 +12852,7 @@
         </is>
       </c>
       <c r="C828" t="n">
-        <v>-454.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829">
@@ -12867,7 +12867,7 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>-591.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="C830" t="n">
-        <v>-3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831">
@@ -12897,7 +12897,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>-22.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832">
@@ -12912,7 +12912,7 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>-54.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833">
@@ -12927,7 +12927,7 @@
         </is>
       </c>
       <c r="C833" t="n">
-        <v>-54.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834">
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>-68.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835">
@@ -12957,7 +12957,7 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>-60.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836">
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>-27.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -13122,7 +13122,7 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>-0.6899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847">
@@ -13137,7 +13137,7 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>-8.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848">
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>-136.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874">
@@ -13542,7 +13542,7 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>-275.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875">
@@ -13557,7 +13557,7 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>-413.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876">
@@ -13572,7 +13572,7 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>-551.5599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877">
@@ -13587,7 +13587,7 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>-689.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878">
@@ -13662,7 +13662,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>-11.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883">
@@ -13677,7 +13677,7 @@
         </is>
       </c>
       <c r="C883" t="n">
-        <v>-29.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884">
@@ -13737,7 +13737,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>-175.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888">
@@ -13752,7 +13752,7 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>-130.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889">
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="C889" t="n">
-        <v>-363.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890">
@@ -13782,7 +13782,7 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>-48.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891">
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="C891" t="n">
-        <v>-255.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892">
@@ -13827,7 +13827,7 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>-156.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894">
@@ -13842,7 +13842,7 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>-175.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895">
@@ -13857,7 +13857,7 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>-255.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896">
